--- a/conversation/Present-Perfect.xlsx
+++ b/conversation/Present-Perfect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\เบ็ดเตล็ด\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Pictures\Jiw\Project\grammar-police-game\testgame\conversation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6801235A-07CB-4836-B8C7-6C0BC29635C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFD39F3-AA4E-4619-B02A-794FA901DB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{043717B8-2880-41BA-A7F0-653D5A6E1C80}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{043717B8-2880-41BA-A7F0-653D5A6E1C80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
   <si>
     <t>ID</t>
   </si>
@@ -83,9 +81,6 @@
     <t>Has Sarah been getting along with her new roommate?</t>
   </si>
   <si>
-    <t>be</t>
-  </si>
-  <si>
     <t>been</t>
   </si>
   <si>
@@ -99,7 +94,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -109,7 +104,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -131,7 +126,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -141,7 +136,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -150,9 +145,6 @@
     </r>
   </si>
   <si>
-    <t>hear</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">You should definitely go! I've </t>
     </r>
@@ -160,7 +152,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -170,7 +162,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -192,7 +184,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -202,7 +194,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -214,9 +206,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>am</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Yes, I </t>
     </r>
@@ -224,7 +213,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -234,7 +223,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -243,9 +232,6 @@
     </r>
   </si>
   <si>
-    <t>hearing</t>
-  </si>
-  <si>
     <t>read</t>
   </si>
   <si>
@@ -256,7 +242,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -266,7 +252,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -275,9 +261,6 @@
     </r>
   </si>
   <si>
-    <t>reads</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Have you </t>
     </r>
@@ -285,7 +268,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -295,7 +278,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -304,9 +287,6 @@
     </r>
   </si>
   <si>
-    <t>finish</t>
-  </si>
-  <si>
     <t>finished</t>
   </si>
   <si>
@@ -317,7 +297,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -327,7 +307,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -343,7 +323,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -353,7 +333,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -369,7 +349,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -379,7 +359,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -388,9 +368,6 @@
     </r>
   </si>
   <si>
-    <t>stress</t>
-  </si>
-  <si>
     <t>stressed</t>
   </si>
   <si>
@@ -401,7 +378,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -411,7 +388,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -430,7 +407,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -440,7 +417,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -449,9 +426,6 @@
     </r>
   </si>
   <si>
-    <t>saw</t>
-  </si>
-  <si>
     <t>tried</t>
   </si>
   <si>
@@ -462,7 +436,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -472,7 +446,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -481,9 +455,6 @@
     </r>
   </si>
   <si>
-    <t>lose</t>
-  </si>
-  <si>
     <t>lost</t>
   </si>
   <si>
@@ -494,7 +465,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -504,7 +475,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -513,9 +484,6 @@
     </r>
   </si>
   <si>
-    <t>try</t>
-  </si>
-  <si>
     <t>noticed</t>
   </si>
   <si>
@@ -526,7 +494,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -536,7 +504,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -552,7 +520,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -562,7 +530,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -571,9 +539,6 @@
     </r>
   </si>
   <si>
-    <t>became</t>
-  </si>
-  <si>
     <t>become</t>
   </si>
   <si>
@@ -584,7 +549,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -594,7 +559,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -603,9 +568,6 @@
     </r>
   </si>
   <si>
-    <t>notices</t>
-  </si>
-  <si>
     <t>played</t>
   </si>
   <si>
@@ -616,7 +578,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -626,7 +588,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -642,7 +604,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -652,7 +614,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -661,9 +623,6 @@
     </r>
   </si>
   <si>
-    <t>playing</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Have you </t>
     </r>
@@ -671,7 +630,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -681,7 +640,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -690,9 +649,6 @@
     </r>
   </si>
   <si>
-    <t>give</t>
-  </si>
-  <si>
     <t>given</t>
   </si>
   <si>
@@ -703,7 +659,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -713,7 +669,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -722,9 +678,6 @@
     </r>
   </si>
   <si>
-    <t>start</t>
-  </si>
-  <si>
     <t>Has</t>
   </si>
   <si>
@@ -738,7 +691,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -748,7 +701,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -757,14 +710,11 @@
     </r>
   </si>
   <si>
-    <t>Have</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -774,7 +724,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -783,9 +733,6 @@
     </r>
   </si>
   <si>
-    <t>is</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">No, she hasn't. She </t>
     </r>
@@ -793,7 +740,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -803,7 +750,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -812,9 +759,6 @@
     </r>
   </si>
   <si>
-    <t>applying</t>
-  </si>
-  <si>
     <t>applied</t>
   </si>
   <si>
@@ -825,7 +769,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -835,7 +779,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -851,7 +795,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -861,7 +805,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -880,7 +824,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -890,7 +834,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -899,9 +843,6 @@
     </r>
   </si>
   <si>
-    <t>considering</t>
-  </si>
-  <si>
     <t>considered</t>
   </si>
   <si>
@@ -912,7 +853,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -922,7 +863,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -935,7 +876,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -945,7 +886,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -961,7 +902,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -971,7 +912,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -990,7 +931,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1000,7 +941,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1009,9 +950,6 @@
     </r>
   </si>
   <si>
-    <t>see</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Yes, she has! She's been taking an online course in graphic design and is really enjoying it. I've </t>
     </r>
@@ -1019,7 +957,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1029,7 +967,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1038,9 +976,6 @@
     </r>
   </si>
   <si>
-    <t>think</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
@@ -1051,7 +986,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1061,7 +996,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Tahoma"/>
+        <rFont val="Aptos Narrow"/>
         <family val="2"/>
         <charset val="222"/>
         <scheme val="minor"/>
@@ -1078,7 +1013,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -1086,14 +1021,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1134,7 +1069,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1468,11 +1403,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D581728C-4B56-4EC7-B58E-B802BFBCABAA}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="101" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="101" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="8.6640625" style="3"/>
     <col min="3" max="3" width="26.83203125" style="1" customWidth="1"/>
@@ -1480,7 +1415,7 @@
     <col min="5" max="5" width="11.6640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1497,7 +1432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1506,16 +1441,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A4" si="0">A2</f>
         <v>1</v>
@@ -1525,16 +1460,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
@@ -1544,16 +1479,16 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -1562,16 +1497,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <f t="shared" ref="A6:A7" si="3">A5</f>
         <v>2</v>
@@ -1583,14 +1518,14 @@
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>27</v>
+      <c r="D6" s="3">
+        <v>-1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <f t="shared" si="3"/>
         <v>2</v>
@@ -1600,16 +1535,16 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>3</v>
       </c>
@@ -1618,16 +1553,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <f t="shared" ref="A9:A10" si="5">A8</f>
         <v>3</v>
@@ -1639,14 +1574,14 @@
       <c r="C9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>27</v>
+      <c r="D9" s="3">
+        <v>-1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <f t="shared" si="5"/>
         <v>3</v>
@@ -1658,14 +1593,14 @@
       <c r="C10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>27</v>
+      <c r="D10" s="3">
+        <v>-1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>4</v>
       </c>
@@ -1674,16 +1609,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="66" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <f t="shared" ref="A12:A13" si="7">A11</f>
         <v>4</v>
@@ -1693,16 +1628,16 @@
         <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <f t="shared" si="7"/>
         <v>4</v>
@@ -1714,14 +1649,14 @@
       <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>27</v>
+      <c r="D13" s="3">
+        <v>-1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1730,16 +1665,16 @@
         <v>1</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="66" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <f t="shared" ref="A15:A16" si="9">A14</f>
         <v>5</v>
@@ -1749,16 +1684,16 @@
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="3">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <f t="shared" si="9"/>
         <v>5</v>
@@ -1768,16 +1703,16 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="D16" s="3">
+        <v>5</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>6</v>
       </c>
@@ -1788,8 +1723,11 @@
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+      <c r="D17" s="3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="66" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <f t="shared" ref="A18:A19" si="11">A17</f>
         <v>6</v>
@@ -1799,16 +1737,16 @@
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -1820,14 +1758,14 @@
       <c r="C19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>27</v>
+      <c r="D19" s="3">
+        <v>-1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>7</v>
       </c>
@@ -1836,16 +1774,16 @@
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
+      </c>
+      <c r="D20" s="3">
+        <v>2</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="66" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <f t="shared" ref="A21:A22" si="13">A20</f>
         <v>7</v>
@@ -1855,16 +1793,16 @@
         <v>2</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
+      </c>
+      <c r="D21" s="3">
+        <v>10</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <f t="shared" si="13"/>
         <v>7</v>
@@ -1876,14 +1814,14 @@
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>27</v>
+      <c r="D22" s="3">
+        <v>-1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>8</v>
       </c>
@@ -1892,16 +1830,16 @@
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <f t="shared" ref="A24:A25" si="15">A23</f>
         <v>8</v>
@@ -1911,16 +1849,16 @@
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <f t="shared" si="15"/>
         <v>8</v>
@@ -1930,16 +1868,16 @@
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="D25" s="3">
+        <v>3</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>9</v>
       </c>
@@ -1948,16 +1886,16 @@
         <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="82.5" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <f t="shared" ref="A27:A28" si="17">A26</f>
         <v>9</v>
@@ -1967,16 +1905,16 @@
         <v>2</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>24</v>
+        <v>49</v>
+      </c>
+      <c r="D27" s="3">
+        <v>2</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <f t="shared" si="17"/>
         <v>9</v>
@@ -1988,14 +1926,14 @@
       <c r="C28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="3" t="s">
-        <v>27</v>
+      <c r="D28" s="3">
+        <v>-1</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>10</v>
       </c>
@@ -2004,16 +1942,16 @@
         <v>1</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>62</v>
+        <v>50</v>
+      </c>
+      <c r="D29" s="3">
+        <v>2</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="66" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <f t="shared" ref="A30:A31" si="19">A29</f>
         <v>10</v>
@@ -2023,16 +1961,16 @@
         <v>2</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
+      </c>
+      <c r="D30" s="3">
+        <v>12</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="66" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <f t="shared" si="19"/>
         <v>10</v>
@@ -2042,16 +1980,16 @@
         <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>67</v>
+        <v>55</v>
+      </c>
+      <c r="D31" s="3">
+        <v>17</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>11</v>
       </c>
@@ -2060,16 +1998,16 @@
         <v>1</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>71</v>
+        <v>56</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <f t="shared" ref="A33:A34" si="21">A32</f>
         <v>11</v>
@@ -2079,16 +2017,16 @@
         <v>2</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>73</v>
+        <v>57</v>
+      </c>
+      <c r="D33" s="3">
+        <v>4</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <f t="shared" si="21"/>
         <v>11</v>
@@ -2100,14 +2038,14 @@
       <c r="C34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>27</v>
+      <c r="D34" s="3">
+        <v>-1</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <v>12</v>
       </c>
@@ -2116,16 +2054,16 @@
         <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>75</v>
+        <v>59</v>
+      </c>
+      <c r="D35" s="3">
+        <v>2</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="66" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <f t="shared" ref="A36:A37" si="23">A35</f>
         <v>12</v>
@@ -2135,16 +2073,16 @@
         <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>25</v>
+        <v>60</v>
+      </c>
+      <c r="D36" s="3">
+        <v>2</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <f t="shared" si="23"/>
         <v>12</v>
@@ -2154,16 +2092,16 @@
         <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>27</v>
+        <v>61</v>
+      </c>
+      <c r="D37" s="3">
+        <v>-1</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>13</v>
       </c>
@@ -2174,14 +2112,14 @@
       <c r="C38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>27</v>
+      <c r="D38" s="3">
+        <v>-1</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="82.5" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <f t="shared" ref="A39:A40" si="25">A38</f>
         <v>13</v>
@@ -2191,16 +2129,16 @@
         <v>2</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>20</v>
+        <v>62</v>
+      </c>
+      <c r="D39" s="3">
+        <v>2</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <f t="shared" si="25"/>
         <v>13</v>
@@ -2210,16 +2148,16 @@
         <v>3</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>81</v>
+        <v>64</v>
+      </c>
+      <c r="D40" s="3">
+        <v>6</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <v>14</v>
       </c>
@@ -2228,16 +2166,16 @@
         <v>1</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="66" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
         <f t="shared" ref="A42:A43" si="27">A41</f>
         <v>14</v>
@@ -2247,16 +2185,16 @@
         <v>2</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>22</v>
+        <v>66</v>
+      </c>
+      <c r="D42" s="3">
+        <v>13</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <f t="shared" si="27"/>
         <v>14</v>
@@ -2266,16 +2204,16 @@
         <v>3</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>27</v>
+        <v>67</v>
+      </c>
+      <c r="D43" s="3">
+        <v>-1</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="33" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <v>15</v>
       </c>
@@ -2284,16 +2222,16 @@
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="70" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:5" ht="82.5" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <f t="shared" ref="A45:A46" si="29">A44</f>
         <v>15</v>
@@ -2303,16 +2241,16 @@
         <v>2</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>88</v>
+        <v>69</v>
+      </c>
+      <c r="D45" s="3">
+        <v>18</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="49.5" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <f t="shared" si="29"/>
         <v>15</v>
@@ -2322,13 +2260,13 @@
         <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
+      </c>
+      <c r="D46" s="3">
+        <v>4</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
